--- a/tests/fixtures/migrate/example_existing_model_rt.xlsx
+++ b/tests/fixtures/migrate/example_existing_model_rt.xlsx
@@ -1,72 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/obj_model/tests/fixtures/migrate/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="6840" windowWidth="12440" windowHeight="6720"/>
+    <workbookView windowWidth="20295" windowHeight="6945"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Property" sheetId="3" r:id="rId2"/>
-    <sheet name="Subtests" sheetId="4" r:id="rId3"/>
-    <sheet name="References" sheetId="5" r:id="rId4"/>
+    <sheet name="!Test" sheetId="1" r:id="rId1"/>
+    <sheet name="!Property" sheetId="3" r:id="rId2"/>
+    <sheet name="!Subtests" sheetId="4" r:id="rId3"/>
+    <sheet name="!References" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">References!$A$1:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Subtests!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Subtests'!$A$2:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!References'!$A$2:$B$3</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
-  <si>
-    <t>Id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+  <si>
+    <t>!!ObjTables TableType='Data' ModelId='Test'</t>
+  </si>
+  <si>
+    <t>!Id</t>
   </si>
   <si>
     <t>Mpn_Karr_2016</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Version</t>
+    <t>!Name</t>
+  </si>
+  <si>
+    <t>!Version</t>
   </si>
   <si>
     <t>0.0.1</t>
   </si>
   <si>
-    <t>Revision</t>
+    <t>!Revision</t>
   </si>
   <si>
     <t>3794e6c9a51719ad7145a00c14ee679dfc4c6410</t>
   </si>
   <si>
+    <t>!Existing attr</t>
+  </si>
+  <si>
+    <t>existing_attr_val</t>
+  </si>
+  <si>
+    <t>!!ObjTables TableType='Data' ModelId='Property'</t>
+  </si>
+  <si>
     <t>prop_1</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>References</t>
+    <t>!Test</t>
+  </si>
+  <si>
+    <t>!Value</t>
+  </si>
+  <si>
+    <t>!!ObjTables TableType='Data' ModelId='Subtest'</t>
+  </si>
+  <si>
+    <t>!References</t>
   </si>
   <si>
     <t>subtest_1</t>
@@ -78,38 +80,194 @@
     <t>subtest_2</t>
   </si>
   <si>
+    <t>!!ObjTables TableType='Data' ModelId='Reference'</t>
+  </si>
+  <si>
     <t>smooth</t>
-  </si>
-  <si>
-    <t>existing_attr_val</t>
-  </si>
-  <si>
-    <t>Existing attr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,10 +277,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,25 +475,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -163,10 +800,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -437,203 +1074,238 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="15" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="15" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="15" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A2:C4">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="15" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2"/>
+  <autoFilter ref="A2:B3">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/fixtures/migrate/example_existing_model_rt.xlsx
+++ b/tests/fixtures/migrate/example_existing_model_rt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945"/>
+    <workbookView windowWidth="20295" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="!Test" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Test'</t>
+    <t>!!ObjTables Type='Data' Id='Test'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -53,7 +53,7 @@
     <t>existing_attr_val</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Property'</t>
+    <t>!!ObjTables Type='Data' Id='Property'</t>
   </si>
   <si>
     <t>prop_1</t>
@@ -65,7 +65,7 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Subtest'</t>
+    <t>!!ObjTables Type='Data' Id='Subtest'</t>
   </si>
   <si>
     <t>!References</t>
@@ -80,7 +80,7 @@
     <t>subtest_2</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Reference'</t>
+    <t>!!ObjTables Type='Data' Id='Reference'</t>
   </si>
   <si>
     <t>smooth</t>
@@ -93,10 +93,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,23 +116,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,9 +148,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,46 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -210,58 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,13 +275,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,13 +359,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,49 +425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,97 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +466,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,21 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -522,6 +515,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,166 +566,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1087,7 +1080,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>

--- a/tests/fixtures/migrate/example_existing_model_rt.xlsx
+++ b/tests/fixtures/migrate/example_existing_model_rt.xlsx
@@ -1,268 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6840" windowWidth="20295"/>
   </bookViews>
   <sheets>
-    <sheet name="!Test" sheetId="1" r:id="rId1"/>
-    <sheet name="!Property" sheetId="3" r:id="rId2"/>
-    <sheet name="!Subtests" sheetId="4" r:id="rId3"/>
-    <sheet name="!References" sheetId="5" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Property" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Subtests" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Subtests'!$A$2:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!References'!$A$2:$B$3</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!!Subtests'!$A$2:$C$4</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'!!References'!$A$2:$B$3</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
-  <si>
-    <t>!!ObjTables Type='Data' Id='Test'</t>
-  </si>
-  <si>
-    <t>!Id</t>
-  </si>
-  <si>
-    <t>Mpn_Karr_2016</t>
-  </si>
-  <si>
-    <t>!Name</t>
-  </si>
-  <si>
-    <t>!Version</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>!Revision</t>
-  </si>
-  <si>
-    <t>3794e6c9a51719ad7145a00c14ee679dfc4c6410</t>
-  </si>
-  <si>
-    <t>!Existing attr</t>
-  </si>
-  <si>
-    <t>existing_attr_val</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Property'</t>
-  </si>
-  <si>
-    <t>prop_1</t>
-  </si>
-  <si>
-    <t>!Test</t>
-  </si>
-  <si>
-    <t>!Value</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Subtest'</t>
-  </si>
-  <si>
-    <t>!References</t>
-  </si>
-  <si>
-    <t>subtest_1</t>
-  </si>
-  <si>
-    <t>id_01</t>
-  </si>
-  <si>
-    <t>subtest_2</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Reference'</t>
-  </si>
-  <si>
-    <t>smooth</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
   </numFmts>
   <fonts count="22">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -568,223 +498,218 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="9" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="10" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="9" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
+    <cellStyle builtinId="27" name="Bad" xfId="23"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
+    <cellStyle builtinId="25" name="Total" xfId="25"/>
+    <cellStyle builtinId="21" name="Output" xfId="26"/>
+    <cellStyle builtinId="4" name="Currency" xfId="27"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
+    <cellStyle builtinId="10" name="Note" xfId="29"/>
+    <cellStyle builtinId="20" name="Input" xfId="30"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
+    <cellStyle builtinId="26" name="Good" xfId="33"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
+    <cellStyle builtinId="15" name="Title" xfId="39"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
+    <cellStyle builtinId="3" name="Comma" xfId="44"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
+    <cellStyle builtinId="5" name="Percent" xfId="47"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1071,234 +996,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="E15" pane="bottomRight" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="2" width="15" style="2" customWidth="1"/>
+    <col customWidth="1" max="2" min="1" style="2" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="2" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Data' Id='Test'</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>!Id</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Mpn_Karr_2016</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>!Name</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="5" s="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>!Version</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="6" s="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>!Revision</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>3794e6c9a51719ad7145a00c14ee679dfc4c6410</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>!Existing attr</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>existing_attr_val</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="A2" pane="bottomRight" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="15" style="2" customWidth="1"/>
+    <col customWidth="1" max="2" min="1" style="2" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Data' Id='Property'</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="2" s="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>!Id</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>prop_1</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>!Test</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Mpn_Karr_2016</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>!Value</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="A2" pane="bottomRight" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="3" width="15" style="2" customWidth="1"/>
+    <col customWidth="1" max="3" min="1" style="2" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Data' Id='Subtest'</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="2" s="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>!Id</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>!Test</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>!References</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>subtest_1</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Mpn_Karr_2016</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>id_01</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>subtest_2</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Mpn_Karr_2016</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>id_01</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C4">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <autoFilter ref="A2:C4"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="15" style="2" customWidth="1"/>
+    <col customWidth="1" max="2" min="1" style="2" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Data' Id='Reference'</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="2" s="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>!Id</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>!Value</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>id_01</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>smooth</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B3">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <autoFilter ref="A2:B3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/tests/fixtures/migrate/example_existing_model_rt.xlsx
+++ b/tests/fixtures/migrate/example_existing_model_rt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6840" windowWidth="20295"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20295" windowHeight="6840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Test" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,19 +12,19 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'!!Subtests'!$A$2:$C$4</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'!!References'!$A$2:$B$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Subtests'!$A$2:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!References'!$A$2:$B$3</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -498,218 +498,218 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="9" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="9" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1004,33 +1004,33 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E15" pane="bottomRight" sqref="E15"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="2" width="15"/>
+    <col width="15" customWidth="1" style="2" min="1" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="1">
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Test'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="1">
+          <t>!!ObjTables type='Data' id='Test'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="1">
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>!Name</t>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B4" s="5" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="5" s="1">
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>!Version</t>
@@ -1062,7 +1062,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="6" s="1">
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>!Revision</t>
@@ -1087,7 +1087,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1100,26 +1100,26 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomRight" sqref="A2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="2" width="15"/>
+    <col width="15" customWidth="1" style="2" min="1" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Property'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="1">
+          <t>!!ObjTables type='Data' id='Property'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="1">
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>!Test</t>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="1">
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>!Value</t>
@@ -1154,7 +1154,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1167,26 +1167,26 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomRight" sqref="A2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="2" width="15"/>
+    <col width="15" customWidth="1" style="2" min="1" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Subtest'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="1">
+          <t>!!ObjTables type='Data' id='Subtest'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="1">
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>subtest_1</t>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="1">
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>subtest_2</t>
@@ -1239,7 +1239,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:C4"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1252,26 +1252,26 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="2" width="15"/>
+    <col width="15" customWidth="1" style="2" min="1" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reference'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="2" s="1">
+          <t>!!ObjTables type='Data' id='Reference'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="1">
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>id_01</t>
@@ -1297,6 +1297,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:B3"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/fixtures/migrate/example_existing_model_rt.xlsx
+++ b/tests/fixtures/migrate/example_existing_model_rt.xlsx
@@ -1026,7 +1026,7 @@
     <row r="2" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Test'</t>
+          <t>!!ObjTables type='Data' class='Test'</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Property'</t>
+          <t>!!ObjTables type='Data' class='Property'</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Subtest'</t>
+          <t>!!ObjTables type='Data' class='Subtest'</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference'</t>
+          <t>!!ObjTables type='Data' class='Reference'</t>
         </is>
       </c>
     </row>
